--- a/foundation/Data/사업자등록상태조회.xlsx
+++ b/foundation/Data/사업자등록상태조회.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20356"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5F9E1C-B9A4-4AEB-A708-A7AC1A2A6919}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F327C924-A4D8-42B4-90BF-6983813FF401}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="사업자휴폐업조회" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="사업자휴폐업조회" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>사업자등록번호</t>
   </si>
@@ -61,6 +62,170 @@
   </si>
   <si>
     <t>조회일자</t>
+  </si>
+  <si>
+    <t>899-58-00075</t>
+  </si>
+  <si>
+    <t>부가가치세 일반과세자 입니다.</t>
+  </si>
+  <si>
+    <t>899-63-00123</t>
+  </si>
+  <si>
+    <t>부가가치세 간이과세자 입니다.</t>
+  </si>
+  <si>
+    <t>899-76-00079</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2019-06-30) 입니다.</t>
+  </si>
+  <si>
+    <t>899-77-00057</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2019-05-21) 입니다.</t>
+  </si>
+  <si>
+    <t>101-05-40144</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-02-28) 입니다.</t>
+  </si>
+  <si>
+    <t>101-08-63774</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-03-07) 입니다.</t>
+  </si>
+  <si>
+    <t>101-11-27195</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-05-31) 입니다.</t>
+  </si>
+  <si>
+    <t>101-12-30533</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-01-16) 입니다.</t>
+  </si>
+  <si>
+    <t>101-12-68892</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-03-01) 입니다._x000D_
+* 과세유형 전환된 날짜는 2016년 07월 01일 입니다.</t>
+  </si>
+  <si>
+    <t>101-12-75340</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-06-18) 입니다.</t>
+  </si>
+  <si>
+    <t>101-16-52137</t>
+  </si>
+  <si>
+    <t>101-21-51049</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-06-30) 입니다.</t>
+  </si>
+  <si>
+    <t>102-03-61041</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-02-02) 입니다.</t>
+  </si>
+  <si>
+    <t>102-15-51153</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-02-01) 입니다.</t>
+  </si>
+  <si>
+    <t>101-02-69515</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 간이과세자, 폐업일자:2019-09-30) 입니다.</t>
+  </si>
+  <si>
+    <t>101-02-78881</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2019-09-30) 입니다.</t>
+  </si>
+  <si>
+    <t>101-02-92807</t>
+  </si>
+  <si>
+    <t>부가가치세 일반과세자 입니다._x000D_
+* 과세유형 전환된 날짜는 2013년 07월 01일 입니다.</t>
+  </si>
+  <si>
+    <t>101-03-72583</t>
+  </si>
+  <si>
+    <t>부가가치세 일반과세자 입니다._x000D_
+* 과세유형 전환된 날짜는 2018년 07월 01일 입니다.</t>
+  </si>
+  <si>
+    <t>101-04-06872</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2017-09-28) 입니다.</t>
+  </si>
+  <si>
+    <t>101-04-17419</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 간이과세자, 폐업일자:2018-11-15) 입니다.</t>
+  </si>
+  <si>
+    <t>101-04-21228</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2019-01-01) 입니다._x000D_
+* 과세유형 전환된 날짜는 2013년 10월 01일 입니다.</t>
+  </si>
+  <si>
+    <t>101-04-24211</t>
+  </si>
+  <si>
+    <t>101-04-25563</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2017-08-25) 입니다._x000D_
+* 과세유형 전환된 날짜는 2013년 07월 01일 입니다.</t>
+  </si>
+  <si>
+    <t>101-04-87268</t>
+  </si>
+  <si>
+    <t>101-03-88483</t>
+  </si>
+  <si>
+    <t>101-04-98936</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2016-11-30) 입니다.</t>
+  </si>
+  <si>
+    <t>101-05-33492</t>
+  </si>
+  <si>
+    <t>101-05-35618</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2017-07-24) 입니다.</t>
+  </si>
+  <si>
+    <t>101-05-60738</t>
+  </si>
+  <si>
+    <t>101-05-75871</t>
   </si>
 </sst>
 </file>
@@ -131,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -168,6 +333,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,10 +675,428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEBAC9B-115A-4E2E-AE95-7EBED7123D53}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13">
+        <v>43646</v>
+      </c>
+      <c r="D4" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="13">
+        <v>43606</v>
+      </c>
+      <c r="D5" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13">
+        <v>43159</v>
+      </c>
+      <c r="D6" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="13">
+        <v>43166</v>
+      </c>
+      <c r="D7" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13">
+        <v>43251</v>
+      </c>
+      <c r="D8" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="13">
+        <v>43116</v>
+      </c>
+      <c r="D9" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="247.5">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="13">
+        <v>43160</v>
+      </c>
+      <c r="D10" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="13">
+        <v>43269</v>
+      </c>
+      <c r="D11" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="13">
+        <v>43159</v>
+      </c>
+      <c r="D12" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="13">
+        <v>43281</v>
+      </c>
+      <c r="D13" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43133</v>
+      </c>
+      <c r="D14" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="13">
+        <v>43132</v>
+      </c>
+      <c r="D15" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="13">
+        <v>43738</v>
+      </c>
+      <c r="D16" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="13">
+        <v>43738</v>
+      </c>
+      <c r="D17" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="165">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="165">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="13">
+        <v>43006</v>
+      </c>
+      <c r="D20" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="13">
+        <v>43419</v>
+      </c>
+      <c r="D21" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="247.5">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="13">
+        <v>43466</v>
+      </c>
+      <c r="D22" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="247.5">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="13">
+        <v>42972</v>
+      </c>
+      <c r="D24" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="13">
+        <v>42704</v>
+      </c>
+      <c r="D27" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="13">
+        <v>42940</v>
+      </c>
+      <c r="D29" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="13">
+        <v>43883</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
